--- a/test-output/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/ExcelReport/ExtentExcel.xlsx
@@ -277,16 +277,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Jan 28, 2024 12:24:59 am</t>
+    <t>Jan 28, 2024 2:30:25 pm</t>
   </si>
   <si>
-    <t>Jan 28, 2024 12:24:45 am</t>
+    <t>Jan 28, 2024 2:29:48 pm</t>
   </si>
   <si>
-    <t>Jan 28, 2024 12:24:55 am</t>
+    <t>Jan 28, 2024 2:30:20 pm</t>
   </si>
   <si>
-    <t>9.553 s</t>
+    <t>32.177 s</t>
   </si>
   <si>
     <t>50%</t>
@@ -304,16 +304,16 @@
     <t>User should create account successfully</t>
   </si>
   <si>
-    <t>4.383 s</t>
+    <t>5.446 s</t>
   </si>
   <si>
     <t>Join Now feature functionality</t>
   </si>
   <si>
-    <t>4.250 s</t>
+    <t>25.450 s</t>
   </si>
   <si>
-    <t>4.387 s</t>
+    <t>5.453 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -325,13 +325,36 @@
     <t>Then I verify text 'Play Online Slots at Virgin Games'</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: expected [Play Online Slots at Virgin Games] but found [*Click for full Rules. New members only, must opt in. Min £10 deposit &amp; wager. 30 day expiry from deposit. 18+. Free Spins: on Double Bubble. 1p coin size, max lines. Game availability &amp; restrictions apply.]
-	at org.testng.Assert.fail(Assert.java:111)
-	at org.testng.Assert.failNotEquals(Assert.java:1578)
-	at org.testng.Assert.assertEqualsImpl(Assert.java:150)
-	at org.testng.Assert.assertEquals(Assert.java:132)
-	at org.testng.Assert.assertEquals(Assert.java:656)
-	at org.testng.Assert.assertEquals(Assert.java:666)
+    <t xml:space="preserve">org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//h1[normalize-space()='Play Online Slots at Virgin Games']"}
+  (Session info: chrome=121.0.6167.85)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.8'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c1d58f4e98111b3672784930ed88d1e9, findElement {using=xpath, value=//h1[normalize-space()='Play Online Slots at Virgin Games']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\appat\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55605}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55605/devtoo..., se:cdpVersion: 121.0.6167.85, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c1d58f4e98111b3672784930ed88d1e9
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.createException(W3CHttpResponseCodec.java:200)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:133)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:52)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:191)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:200)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:175)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:607)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:364)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:358)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at jdk.proxy2/jdk.proxy2.$Proxy29.getText(Unknown Source)
+	at com.virgingames.utility.Utility.getTextFromElement(Utility.java:60)
+	at com.virgingames.pages.OnlineSlotsPage.getTextOfPlayOnlineSlotsAtVirginGames(OnlineSlotsPage.java:15)
 	at com.virgingames.steps.OnlineSlotsSteps.iVerifyTextPlayOnlineSlotsAtVirginGames(OnlineSlotsSteps.java:10)
 	at ✽.I verify text 'Play Online Slots at Virgin Games'(file:///C:/Users/appat/IdeaProjects/virgingames-cucumber/src/test/resources/features/onlineslots.feature:10)
 </t>
@@ -8699,7 +8722,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="C7D9" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E0F9" scenarios="true" objects="true"/>
   <mergeCells count="4">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
@@ -9042,7 +9065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="EC29" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="947D" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
